--- a/DocumentUnderstandingTest/DocumentUnderstandingTest/Devis_societe_2.xlsx
+++ b/DocumentUnderstandingTest/DocumentUnderstandingTest/Devis_societe_2.xlsx
@@ -1744,7 +1744,7 @@
       </c>
       <c r="F2" s="8">
         <f ca="1">TODAY()</f>
-        <v>43913</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="3" spans="2:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.4">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="F7" s="8">
         <f ca="1">F2+30</f>
-        <v>43943</v>
+        <v>43979</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.4">
@@ -2065,6 +2065,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cf6cf056b5324d160236e2ac13572175">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="308e4927137fd5e63b6be1bd7725299e" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2284,15 +2293,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49B3B314-6F37-4B5B-91DC-91848E4E7F4B}">
   <ds:schemaRefs>
@@ -2312,6 +2312,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE21DFDB-9131-4336-BB9A-5B7FFEA41F63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B971255C-6284-478A-B532-189CCBCEB2CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2329,12 +2337,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE21DFDB-9131-4336-BB9A-5B7FFEA41F63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DocumentUnderstandingTest/DocumentUnderstandingTest/Devis_societe_2.xlsx
+++ b/DocumentUnderstandingTest/DocumentUnderstandingTest/Devis_societe_2.xlsx
@@ -1744,7 +1744,7 @@
       </c>
       <c r="F2" s="8">
         <f ca="1">TODAY()</f>
-        <v>43949</v>
+        <v>43913</v>
       </c>
     </row>
     <row r="3" spans="2:6" s="4" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.4">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="F7" s="8">
         <f ca="1">F2+30</f>
-        <v>43979</v>
+        <v>43943</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.4">
@@ -2065,15 +2065,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cf6cf056b5324d160236e2ac13572175">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="308e4927137fd5e63b6be1bd7725299e" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2293,6 +2284,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49B3B314-6F37-4B5B-91DC-91848E4E7F4B}">
   <ds:schemaRefs>
@@ -2312,14 +2312,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE21DFDB-9131-4336-BB9A-5B7FFEA41F63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B971255C-6284-478A-B532-189CCBCEB2CD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2337,4 +2329,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE21DFDB-9131-4336-BB9A-5B7FFEA41F63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>